--- a/data/CPBDirectors_5_24.xlsx
+++ b/data/CPBDirectors_5_24.xlsx
@@ -1522,10 +1522,10 @@
         <v/>
       </c>
       <c r="BP3" s="26" t="n">
-        <v>36.78958333333333</v>
+        <v>36.8</v>
       </c>
       <c r="BQ3" s="26" t="n">
-        <v>0.01041666666666667</v>
+        <v>0</v>
       </c>
       <c r="BR3" s="26" t="n">
         <v/>
@@ -1747,10 +1747,10 @@
         <v/>
       </c>
       <c r="BP4" s="26" t="n">
-        <v>31.98958333333333</v>
+        <v>32</v>
       </c>
       <c r="BQ4" s="26" t="n">
-        <v>0.01041666666666667</v>
+        <v>0</v>
       </c>
       <c r="BR4" s="26" t="n">
         <v/>
@@ -1972,10 +1972,10 @@
         <v/>
       </c>
       <c r="BP5" s="26" t="n">
-        <v>33.58958333333334</v>
+        <v>33.6</v>
       </c>
       <c r="BQ5" s="26" t="n">
-        <v>0.01041666666666667</v>
+        <v>0</v>
       </c>
       <c r="BR5" s="26" t="n">
         <v/>
@@ -2197,10 +2197,10 @@
         <v/>
       </c>
       <c r="BP6" s="26" t="n">
-        <v>29.58958333333333</v>
+        <v>29.6</v>
       </c>
       <c r="BQ6" s="26" t="n">
-        <v>0.01041666666666667</v>
+        <v>0</v>
       </c>
       <c r="BR6" s="26" t="n">
         <v/>
@@ -2422,10 +2422,10 @@
         <v/>
       </c>
       <c r="BP7" s="26" t="n">
-        <v>33.58958333333334</v>
+        <v>33.6</v>
       </c>
       <c r="BQ7" s="26" t="n">
-        <v>0.01041666666666667</v>
+        <v>0</v>
       </c>
       <c r="BR7" s="26" t="n">
         <v/>
